--- a/500all/speech_level/speeches_CHRG-114hhrg94097.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94097.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400379</t>
   </si>
   <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. And, obviously, that is the game-changing issue of the European Command, Russia and President Putin's aggressiveness in the Ukraine, and I think the chairman summed it up fairly well.    What Mr. Putin is trying to do is fundamentally alter the post-World War II construct in terms of how the world is organized. And it is very unfortunate. You know, when the Soviet Union broke up and the Cold War ended, there was a real opportunity to integrate Russia into that world order which has worked reasonably well. And Russia would have been a great partner and, you know, history can be written about why that didn't work out.    The bottom line is Russia is now attempting to set up again a bi-polar world. They see it as a zero-sum game. What is good for the West is not good for them and they are attempting to reestablish their power and break away as many people as possible from Western influence. And that is bad enough. Worse is that they are aggressive militarily in how they go about trying to do that.    We have seen it in Crimea, we have seen it in Eastern Ukraine, and the real concern is you read about how Russia's top leadership looks at this issue. There is really not much reason to believe that they are going to stop. They believe this sort of aggression has been rewarded. That they have been able to take territory. That they have been able to reestablish themselves as a legitimate power on the world stage.    So confronting that threat is the number one biggest issue, and it is not easy to confront. We do not want to start another war. We want to figure out some way to stop this aggression in a peaceful means. And we have to work with our NATO and European partners in order to achieve that. And, yet, that is not always an easy process either.    But it does also raise questions about something I think this committee had long assumed, was that we could afford to substantially draw down our presence in Europe in order to focus whether it was on the pivot to Asia or to focus on the rising tide of Islamic extremists in various countries in confronting the terrorist threat that that presents.    Now we realize that our presence in Europe is more important than it used to be. So be interested to hear how are we properly positioned in Europe to confront this threat. How are we aligned with our European allies to, hopefully, you know, maximize our assets and theirs, put them together in the best way possible? And what is the most logical way to confront Putin's aggression. I think that is the fundamental and central question that we face in Europe. I look forward to the testimony.    I apologize, I may have to leave a little early. I am still, as I said, I am in between hip surgeries. Good news is my left hip is getting a lot better. Bad news is my right hip is getting a lot worse. But the surgery is coming so sitting for extended periods of time is not something I can do so I may not be here for the whole hearing, but I do look forward to testimony and questions. Thank you.    [The prepared statement of Mr. Smith can be found in the Appendix on page 48.]    The Chairman. Thank you. We are pleased to welcome Ms. Christine Wormuth, Under Secretary of Defense for Policy, and General Philip Breedlove, Commander, Supreme Allied Command Europe and U.S. European Combatant Command. Thank you all for being here.    Without objection, your full written statement will be made part of the record. And we would invite you to make what oral statements you would like at this point.    Ms. Wormuth.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Wormuth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Wormuth. Thank you, Chairman Thornberry, and Ranking Member Smith and distinguished members of the committee. I very much appreciate the opportunity to be with you all today to talk about the security situation in Europe and our relationship with allies and partners in the region.    As both of you have noted, in the last 18 months the security situation in Europe has changed quite significantly. But despite these challenges, Europe is a cornerstone of our engagement with the rest of the world and a catalyst for our global cooperation.    Time and again, Europe and NATO have proven to be our indispensable strategic partners. We believe that will continue to be true and, for these reasons, U.S. engagement in Europe is and will remain a vital element of our national security strategy.    It has been almost a year since Russia's occupation and attempted annexation of Crimea. Since that time, we have seen Russia funding and arming separatists in Eastern Ukraine. We have seen direct Russian participation in the fighting. These actions, coupled with Russia's continued support of frozen conflicts elsewhere, and violations of its obligations under numerous treaties, are undermining European stability.    Russia's actions to undermine the sovereignty of a neighboring country and to attempt to change borders and to change the international order even, but certainly to change borders by force, are unacceptable.    Russia's aggression against Ukraine challenges our vision of a Europe whole and free, which is what we have been working so hard on since the end of the Cold War. It changes Europe's security landscape, it is causing instability, obviously, on NATO's borders, and we are steadfast as a nation in opposing Russia's destabilizing actions.    To do that, we have been working closely with Europe and other partners and allies; first and foremost, to impose real costs on Russia for its aggressive actions. This has included diplomatic isolation and economic sanctions which, combined with falling oil prices, are having a substantial and mounting impact on Russia's economy.    We are also taking visible, concrete measures to reassure our allies and partners in Europe and to deter further Russian aggression. For example, since May 2014, NATO has been reassuring allies and deterring Russia by maintaining a continuous land, air, and maritime presence and increasing military activity particularly in the eastern part of the NATO Alliance. These measures are defensive, they are proportionate, and they are fully in line with our obligations as NATO members regarding allied defense.    We are also, as part of our strategy, providing substantial support to Ukraine as it is dealing with simultaneous economic and military crises. Since the start of the crisis, we have increased our security-related assistance to Ukraine significantly, to both its military, its national guard, and its border guard services. And, together, next year, in fiscal year 2015, DOD and the State Department will be providing $120 million to Ukraine as part of the European Reassurance Initiative.    But it is, I think, important to also remember that NATO and our European allies are also on the frontlines of the fight against ISIL [Islamic State of Iraq and the Levant]. There the United States has been leading a coalition of over 60 nations across multiple lines of efforts ranging from military contributions to humanitarian assistance.    As part of the coalition military campaign, Europe has been stepping up to fill critical roles, particularly in denying ISIL safe haven in Iraq and Syria, and helping us build the capacity of partners to take the fight to ISIL, including by actively striking ISIL targets.    The threat we see of foreign fighters going into Iraq and Syria remains a significant concern for us and for our European allies. We are drawing on all forms of our intelligence to understand and address the flow of foreign fighters and we are working closely with our NATO allies and other partners to have an international effort to try to combat this complex problem.    In addition to the threat of ISIL, it is also, I think, important to note that there is significant instability in the Middle East and North Africa that also affects NATO's security, especially for those allies that are on the southern flank of the Alliance. The movement of thousands of migrants to the shores of southern Europe can bring instability and sometimes violence, particularly because of the transnational criminal networks that are involved in human trafficking.    Finally, as we look beyond Europe, it is also useful to reflect on the true strategic partners we have in our European NATO allies for a host of challenges that are well outside of NATO's boundaries. In particular, I just wanted to note how effectively we work together with NATO allies in Africa to be part of the international community's response to the Ebola crisis.    Under Operation United Assistance, the Department has supported the USAID [U.S. Agency for International Development]-led effort to break the back of the Ebola outbreak, with the United States focusing primarily in Liberia. This mission isn't complete and many lives have been lost but I think we can be proud as part of the international community with the strong roles that we have played and that European allies have played to successfully mobilize all of our capabilities to address the emergency.    Also, in Afghanistan, NATO allies remain our steadfast partners in the effort to try to help bring civility and security to that country. The Resolute Support Mission, which we launched at the beginning of this year, focuses the efforts of our NATO allies and other partners on training, advising, and assisting the Afghan security institutions at both the ministerial and institutional level. Twenty-six of our allies and 16 partners are providing forces to the Resolute Support Mission, and our allies there have also committed to providing sustainment funding to the Afghan National Security Forces through 2024, which is going to be critical to locking in the gains that we are making there.    Finally, to do all of this together with our NATO allies and to be able to work effectively, it is essential to have a robust force posture in Europe. Our U.S. footprint in Europe gives us the capability to defend our security interests, to enhance trans-Atlantic security, to reassure allies and deter aggression which, again, we certainly see in a very marked way in recent times.    In a time of limited resources, however, the United States has to be more innovative and explore new posture arrangements by increasing our flexibility, our adaptability, and our readiness.    If sequestration returns, and this is something I am very personally concerned about--our ability to sustain our posture in Europe is going to be at significant risk. If sequestration returns, our ability to continue to invest in the capabilities we need and to maintain the readiness levels we need to be able to effectively respond to crises is going to be at significant risk.    This is a very serious concern. I know it is one that many of you share and we look forward to working with this committee and with Congress more broadly to try to find solutions to these budgetary pressures so that we can maintain the U.S. military as the world's finest military force.    Thank you very much for your time today, and I look forward to questions.    [The prepared statement of Secretary Wormuth can be found in the Appendix on page 50.]    The Chairman. Thank you.    General.    General Breedlove. Chairman Thornberry, Ranking Member Smith, distinguished members of the committee, thank you for the opportunity to testify today.    It is an honor to appear before you representing the dedicated soldiers, sailors, airmen, and marines and our civilians of U.S. European Command [EUCOM]. Thank you for all you do to support them as they serve our Nation.    I am particularly happy to be here today with Under Secretary of Defense for Policy Christine Wormuth.    Compared to just one year ago, Europe faces a very different and much more challenging security environment. Our top concern is a resurgent Russia. A Russia attempting to exercise power and influence through the use of force and intimidation. Russia is blatantly challenging the rules and principles that have been the bedrock of European security for decades. The challenge is global, not regional, and enduring, not temporary.    Russian aggression is clearly visible in its illegal occupation of Crimea and in the continued armed conflict in the Donbass, or Eastern Ukraine.    The best way to bring the conflict in Ukraine to an acceptable lasting solution is through a political settlement, one that respects state sovereignty and territorial integrity. But what we have seen recently and, frankly, over the course of the whole conflict, gives us cause for concern.    Russian forces have supplied separatists with heavy weapons, training and mentoring, command and control, artillery fire support, tactical and operational-level air defenses; more than 1,000 pieces of Russian military equipment have been transferred into Ukraine, including tanks, armored personnel carriers, heavy artillery pieces, and other military vehicles and equipment.    And in a number of cases, when the separate offensive or operations were stalled or were threatened, Russian regular forces themselves intervened to right the course. Just this month, Russian forces fought hard to change the facts on the ground just before the cease fire was scheduled to take effect.    These are not the actions of a good faith negotiating partner. Actions matter much more than words, and what we see in the fight on the ground and in the diplomatic efforts designed to resolve it, is a revanchist Russia that does not play by international rules or norms.    The crisis in Ukraine affects more than just Ukraine. Russian activities are destabilizing to neighboring states and to the region as a whole. Russian illegal actions push instability closer to the boundaries of NATO. As President Obama has clearly stated, the United States will uphold its Article 5 commitments under the Washington Treaty.    In turn, Russia is learning lessons from our responses to their actions. If they feel rewarded by the outcomes, this might embolden them to try them again elsewhere. And the rest of the world, states and non-state actors alike, are also keeping eyes on how these events unfold.    For the longer term, it makes sense to aim for a new Russia-U.S. relationship and a new NATO-Russia relationship that are based on mutual respect and shared interest. A Europe whole, free, at peace, and prosperous, is a vision that would benefit everyone. And it would offer the best possible long-term protection of U.S. national security interests.    At the time same, Europe also faces a surge of violent extremism. The executions and other brutal actions that ISIL has carried out show their total disregard for human life. European nations are rightly worried about foreign fighters returning home to Europe from the fight in Syria and Iraq with new skills and with malign intent. Attacks like those in France, Belgium, and Denmark are only likely to become more frequent.    Foreign fighters are part of a much broader pattern of insecurity in Europe's south, with its roots in the Middle East and North Africa, with flows of migrants and criminal transit routes. The spread of instability into Europe and the reach of transnational terrorism could have a direct bearing on the national security and the U.S. homeland. These challenges are transnational. To solve them, nations need to work together and our civilian and military institutions are and need to continue to cooperate.    EUCOM is working with European nations bilaterally and supporting NATO Alliance initiatives to meet and counter this new and more complex security environment.    Based on the decisions made at NATO's Wales Summit last year, the Alliance is adapting in order to improve its readiness and responsiveness. The Readiness Action Plan, or RAP, is well underway. Our allies are stepping up, making contributions and investments that give them a real stake in the outcome.    The United States will have a key and sustained role to play supporting and enabling these changes, especially in critical areas that are the hardest for our allies to provide like lift, sustainment, and enablers such as ISR [intelligence, surveillance, and reconnaissance]. At the same time, our own U.S. efforts in Europe remain utterly essential, more important now than at any time in recent history. With Russian troops illegally occupying Crimea, soldiers from the 173rd Airborne Brigade in Europe deployed to the Baltic States in Poland with only 96 hours' notice to reassure our allies and our Air Force began flying missions out of Poland within 18 hours of notice.    The reason that we could respond so quickly is that we were there forward and ready. There is simply no substitute for our forward force presence in Europe. It is the bedrock of our ability to assure our allies, to deter real and potential adversaries, and to act in a timely way should deterrence fail.    That forward force presence ensures that EUCOM can play a full array of essential supporting roles for other combatant commands from neighboring AFRICOM [U.S. Africa Command] and CENTCOM [U.S. Central Command] to STRATCOM [U.S. Strategic Command] and TRANSCOM [U.S. Transportation Command]. And it supports all the other critical facets of EUCOM's mission, including, very importantly, fulfilling our commitment to the defense of Israel.    Rotating presence is no substitute for permanent forward presence in the building of relationships or signaling of our commitment. But genuine and fully funded rotational presence can play a very important role in helping to meet requirements in our theatre if it is heel-to-toe and fully resourced.    The budgetary challenges and resourcing tradeoffs that we face now, based on the Budget Control Act, have already forced EUCOM to assume risk. Our timelines are longer, our preparations are less robust, and our fundability to deter and defeat in a timely and effective manner is less sure than it could be. The security challenges in and around Europe are only growing sharper and more complicated at the same time.    Your support of EUCOM's mission and your efforts to chart a longer-term path toward properly resourcing defense are critical steps to ensuring the ability of EUCOM to protect and defend its nation and do its mission.    Thank you for your time and your attention, and I look forward to your questions.    [The prepared statement of General Breedlove can be found in the Appendix on page 57.]    The Chairman. Thank you. Thank you both for your testimony.    General Breedlove, you heard me mention at the beginning that I support Mr. Smith's legislation that would require defensive lethal assistance be provided to the Ukrainians. Have you provided options to the administration for various kinds of weapons and equipment that could be provided to the Ukrainians that would make a significant difference in their ability to defend themselves and, part b, is if a decision were made, how long would it take to get it to them?    General Breedlove. Chairman, thank you for the question. And these are important things, especially the second part as it relates to how this would play out.    So what we have seen across the last year in discussing these issues with Ukraine is a very consistent picture of the things that they tell us they need to move forward in their struggle.    Additionally, the U.S. European Command has had a series of broad and deep conversations across all of the aspects of military business with the Ukrainian military and their defense ministry. And what we have observed about Ukraine is very consistent with what Ukraine was telling us about Ukraine.    And so, Chairman, I have advised to my chain of command those things that we have learned in these discussions and talked about, categories of things that the Ukrainians would need.    All of these options have timelines. Some timelines are short and some are longer. It is pretty straightforward. Small arms and some of the other things that you might consider are a very short timeline. Longer, more sophisticated capabilities take training, they take delivery, et cetera, so there is a mixed bag, I think is the best way to answer your question, of not only delivery, but training required to bring things to fruition.    The Chairman. And I appreciate the point about training. Obviously, that takes some time. I am also--remember that in this room just a couple weeks ago we had the King of Jordan who said that he is incredibly frustrated when equipment and weapons he has requested have been approved but our own bureaucracy still takes so long to actually get the things delivered. And so my offer to you is that I hope a decision is made one way or another soon. If there is something that we can do to speed delivery once that decision is made, whether we force it or the President decides on his own, then we want to do that.    Ms. Wormuth, let me just ask you briefly. This administration probably before your time made a big deal about a reset of Russia--of relations with Russia. Even the policy folks in the administration admit that didn't really work out very well, right?</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400356</t>
   </si>
   <si>
-    <t>Loretta Sanchez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman, and thank you, both of the witnesses, for being before us.    I was just in for a NATO parliamentary meeting and I was in Turkey with Mr. Turner and Colonel Cook, so I won't ask a lot of questions. But I do have a couple of them.    The first one is this whole issue of trying to counter ISIS [Islamic State of Iraq and Syria] recruiting through the social media, especially to the young people who we see going. What is the military and what--you know, how are we working with our European allies, in particular, to ensure that this recruitment isn't going on, not just in the United States but, of course, in Europe.    And then my second questions would be with respect to Turkey who we know at this point is a key NATO ally, has been for a while. We have had our ups and downs in that relationship. It is alarming to see recent reports of the Turkish government turning a blind eye to arming some of the extremist groups like al-Nusra and--some of these reports even suggest that they help groups to capture Syrian towns from the Syrian army with the use of artillery to move in and out across the Turkish border, et cetera.    So while we are all concerned about ISIS and its great cancer in the region, groups like al-Nusra and its allies are not far behind from that. So can either of you comment about what we are seeing there on the ground and what we intend to do about it? Thank you.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400209</t>
   </si>
   <si>
-    <t>Walter B. Jones</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jones. Thank you, Mr. Chairman.    And, Madam Secretary, General Breedlove, thank you for being here and your service to our Nation.    Madam Secretary, you were mentioning in some of your comments about sequestration and we have heard this before, from outside think tanks who have testified, as well as military and administration officials like yourself.    I think we all know that we are looking at some major, major decisions forthcoming. My concern is that it is almost like we know that we have a problem, but we are not willing to deal with the problem.    General Breedlove, I have great respect for all of our military services. I know the stress you all have been under, as it relates to budgets, and this brings me to the point I am trying to make.    First of all, Madam Secretary, has this administration brought in inspector generals, like John Sopko, to talk about the waste, fraud, and abuse in Afghanistan?    You made mention in your comments that things in Afghanistan; we are going to be there to 2024. That is the agreement that the President signed with the Afghan government. And yet, the waste, fraud, and abuse continues to go on and on. Well, that takes away from the military and their needs.    I have said many times that I just do not see how this country can continue to do what is necessary to maintain a strong military, unless there is some debate in the Congress about a war tax, because I don't know where the money is going to come from.    If we don't level with the American people in this very unsafe world that we live in, if we want to win the war or protect Americans then we cannot continue to go into deficit situations. And this committee is probably tired of hearing me saying it, but we are $18.1 trillion in debt.    And every time I have been told that we--bomb in Iraq for about an hour is $300 million an hour. So, I mean, at some point in time, I think the administration has got to say to Congress, we have got to pay for this war. And it is unfair for the American people not to have a Congress that is willing to do what is necessary to rebuild and strengthen our military.    I would like to know your--excuse me; your feelings, as well as General Breedlove's, because you can't do the job if you don't have the armaments. If you can't afford to buy the bombs, you can't bomb. And that is where I am concerned, not just for these few months in front of us, but for the years, to 2024, using the time in Afghanistan. Any comments?</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you to the witnesses.    General, in your opening remarks, you used the term resurgent Russia, which--I would just like to explore that with you for a minute.    I mean, obviously, a big part of the resurgence is more investment in military spending by the Russian government. I just wonder if you could sort of walk us through what capabilities and forces have been the focus of that change.    General Breedlove. Thank you, Congressman.    And what we don't want to do is overstate. You know, that has happened in the past, that we used to talk about a 10-foot-tall Russia. But what Russia has done, over the past 5 years, has steeply ramped up their investment in their military, period.    We see a strong commitment to their nuclear forces in upgrading their nuclear forces, making them more survivable and then making the bench deeper. So a strong emphasis on their nuclear forces.    And then, what they have learned through the years. As you know, when they went into Georgia, it didn't go real well for them and they learned some tough lessons. And so they have addressed those lessons in their conventional forces and they have invested in their mobility, their readiness; they are training them to a higher level and they are outfitting them with new equipment to make them more capable when they take the field.    So it is sort of a bifurcated path, strong emphasis on nuclear weapons, and then the kind of money that you would smartly invest in order to bring up the readiness and capability of their conventional forces.</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Chairman, thank you.    And, Ms. Wormuth, a few weeks ago, the chairman put together a round table with some of the best defense planners and strategists in the country and they all concurred that it would be fair to categorize Mr. Putin as opportunistic.    That means he would see an opportunity like Ukraine, move in there, then evaluate it, based on the responses, for his next movement; that the Chinese were long-term strategists, but that the United States has become more reactionary, and they felt that one of the biggest weaknesses we had now was a lack of strategy.    When I listen to the chairman correctly talking about the need to perhaps give defensive [lethal] assistance, weapons and equipment, to the Ukraine now--Ukraine government, I am concerned because, for the longest time, this administration would not even allow our military to give information, which is kind of the baby step before you do anything else, to the people in Ukraine.    We couldn't tell them about Russian troop movements, capabilities, locations, all of those kinds of things. In hindsight, was that an incorrect strategy?</t>
   </si>
   <si>
@@ -202,9 +184,6 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    General Breedlove, good to see you. Thank you for your comments before the NATO Parliamentary Assembly and the Munich Security Conference.    You have been a great voice of trying to give us clarity in this time period of what you have described as hybrid warfare, where we see ambiguity that Russia is trying to create on their actions, which makes it more difficult for people to formulate policy and then address that policy with having clarity, so thank you for the clarity.    Ms. Wormuth, I have a few questions for you, because also, when your position is policy, what we don't want to have is issues of ambiguity of things that are true or not true: facts.    We can disagree as to policy, but facts are those things that we shouldn't allow ourselves to degrade to ambiguity, as Vladimir Putin tries to get us to do in hybrid warfare.    Phased Adaptive Approach; you will not deny that Phase 4 of the Phased Adaptive Approach was canceled, would you not?</t>
   </si>
   <si>
@@ -298,9 +277,6 @@
     <t xml:space="preserve">    Mr. Turner. Mr. Chairman, thank you, Mr. Chairman.    The Chairman. The time of the gentleman has expired.    Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    General Breedlove, if we arm Ukraine, what will Russia do?    General Breedlove. Congressman, it is a great question. It is one that we are all working very hard on now. Clearly, we don't know what Mr. Putin will do. What we need to do is look at what is on the ground, the capabilities and capacities that he is building, and make inference from those capability and capacities. Right now, we are not arming the Ukrainians with lethal weapons.    And what we see is Russia continues to build their force, continues to provide capability to the Eastern Ukrainians. And so no--the fact that we are not doing now is not changing their path forward. So I think that we have to be cognizant that if we arm the Ukrainians, it could cause positive results, it could cause negative results, but what we are doing now is not changing the results on the ground.</t>
   </si>
   <si>
@@ -346,9 +322,6 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    And Mr. Chairman, Mr. Turner pursued my line of questioning with Ms. Wormuth and he did a much better job than I would have done. So if it is alright, I am just going to suggest that some of us were very concerned about the New START because we saw it allow Russia to build up a stockpile of strategic weapons and for us to be required to build down.    And it did not take into consideration the tactical capability of Russia, especially in Europe. And in retrospect, it appears to me that this Russia reset has been a startling failure. And that is a sincere conclusion, and I know it doesn't really probably track with your own perspective.    So I am going to, if I could, switch over to General Breedlove here.    And General, you know, every time you come here I try to say something nice about you because I think you--people like you that stand out there and give your whole lives for the cause of freedom are the noblest among us. And I am just wondering how he keeps carrying those stars he keeps--they keep putting on him here. It is starting to be pretty good thing for such an old guy, you know? But I say that having been in an F-16 with him during a 360-degree loop, so I had a lot of confidence in him at that time.    But the EPAA [European Phased Adaptive Approach] Phase 2 was set fully to be implemented this year. Can you just discuss the need for increased missile defense capability in your AOR [area of responsibility]?    General Breedlove. Congressman, thank you for that. EPAA Phase 2 is on track for delivery capability in 2016 to be ready. We see all of the actions on the ground doing well. The budget is going well. We may be a month or so behind in the construction but we think we are ready to deliver on time for that. We see the authorities and everything that we need shaping up there. And we also see that the progress on starting the next phase in Poland is tracking as well.</t>
   </si>
   <si>
@@ -361,9 +334,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, thank you, Mr. Chairman.    Thank you both for being here, for your service.    You know, we have had a discussion about just the question what would Russia do, and I wanted to just be certain and clarify there are, obviously, proposals about providing more than non-lethal support to Ukraine and that does trigger our thinking about their using conventional, perhaps even tactical weapons at some point. Can you tell us some more about, you know, how that calculation is and sort of the response of the Congress and what you would like to see?</t>
   </si>
   <si>
@@ -391,9 +361,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Ms. Wormuth, General Breedlove, thank you for joining us.    I want to ask, so far, the administration's strategy to counter Russian aggression is focused on sanctions. We heard senior Russian officials, though, say that Russians will eat less food and use less electricity. Just this past Saturday, Secretary Kerry said the administration is exploring additional sanctions on Russia. Give me your perspective.    How effective to this point have sanctions been? Will they be more effective in the future in changing the Russian calculus? And what military options have you suggested to the administration to counter Russian aggression in Ukraine?</t>
   </si>
   <si>
@@ -415,9 +382,6 @@
     <t>412632</t>
   </si>
   <si>
-    <t>Seth Moulton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    General Breedlove, I am interested in whether you think that we have essentially exhausted our means of supporting Ukraine with non-lethal aid at this point? And whether that, therefore, lethal aid is the next logical step?    General Breedlove. Congressman, no, I don't think we have exhausted the options in non-lethal aid, but I don't think that is directly tied to should lethal be the next step.</t>
   </si>
   <si>
@@ -469,9 +433,6 @@
     <t>412453</t>
   </si>
   <si>
-    <t>Christopher P. Gibson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibson. Thanks, Mr. Chairman.    Appreciate the panelists being here today.    First, a question about Lieutenant Nadiya Savchenko. I am interested in what we know about her current health and about release.    General Breedlove. Congressman, we don't know as much as we would like to know. What we do hear is that she is well cared for. It is not an arduous affair. But that is clearly what we are being told. We have no indications one way or the other.    And this is a strong point of constant contact as Ukraine negotiates forward.</t>
   </si>
   <si>
@@ -493,9 +454,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman. My quick assessment is that, for Russia on the economic front, they care about what is going on and they can care more. Diplomatically, they don't care what people think, and militarily, the West has to find a way to get them to care more. And right now, we are not, because backing diplomacy with nothing is going to continue to get us--you know, we will have Minsk III and Minsk IV and Minsk V and still no action out of Russia, in my view.    General, I want to ask you a question. I was asking you, or somebody, at the NATO PA [Parliamentary Assembly], and it is simple. I mean, do you think Russia understands the difference between a NATO country and a non-NATO country?    General Breedlove. Congressman, the short answer is yes. I believe they do understand what Article 5 means and I think they do respect that. But that does not mean that they will not reach out to those dense Russian-speaking populations that might be in a couple of our border NATO nations to see if there is a way to raise and foment unrest there.</t>
   </si>
   <si>
@@ -517,9 +475,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman, ma'am, General Breedlove. General, thank you for joining me at Robins Air Force Base a couple of weeks ago. We have picked up all the Georgia Tech stickers and tags that we handed out prior to your arrival, but should you choose to come back, we will be more than willing to hand them out again. And I hope you will. I hope you will join us at Robins or at Moody, but I know you are busy.    And I want to talk about one of the platforms that flies out of Robins Air Force Base right now, if I can, and that is the JSTARs [Joint Surveillance Target Attack Radar System]. We have worked to recapitalize that program over the last several years. The Air Force has asked for that. Certainly, want to continue that.    The new budget submission provides funding to keep the five additional E-8Cs [JSTARS] that were scheduled for divestment to recapitalize the fleet. And just like to hear the battle management command and control capabilities of that system, how they have benefited in the current fights that we are in, that you are directly in control of and that capability.    And then again, making sure that--understanding the needs of that platform. We are going to continue with the recapitalization of it to get that ISR platform that--not only us, but our allies' needs in these fights.    General Breedlove. Congressman, thanks for that. And I will refrain from the Georgia-Georgia Tech discussion.    Clearly, the capabilities of this aircraft are key and essential to everything that we do. The ability not only to have some command and control capability aloft but the other part of the mission and looking at the ground, et cetera, et cetera. So we are--as I would say that every COCOM [combatant commander] that sits here in front of you would tell you that these are capabilities we need into the future to be able to do not only our ISR business, but our command and control.</t>
   </si>
   <si>
@@ -544,9 +499,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman. General Breedlove, I am wondering if you can talk to the unconventional tactics being used by Russia, specifically what is being done to counter those? You know, when we look at Ukraine, everyone is--obviously recognizes that there is no head-to-head or tank-to-tank battle that is possible between Ukraine and Russia. So I am wondering what is being done, whether it is done by the U.S. or done by other countries, to assist Ukraine.    We have talked about lethal assistance but also, with regards to training assistance for them to counter these unconventional tactics with unconventional tactics and to begin to exact a toll on the Russian military that becomes more evident to the Russian people beyond the toll that is there from the sanctions.    General Breedlove. Congressman, thanks. And if I could just open the question a little bit, too. We talk a lot about the unconventional tactics in the military side but I think we have to remember that they are being unconventional in diplomatic, incredibly unconventional in the information sphere, and then they are using those sort of tough tools in the economics, as well. So, the ``D'' [diplomatic], the ``I'' [intelligence], and the ``E'' [economic] of DIME are all in unconventional operations for the Russians. And so we need to help our partners to be able to work that.    Broadly, then, in the military piece, there are three things we are helping all of our nations and this is work we are doing in the Baltics right now even more so than in Ukraine, to preclude this problem in the future, and that is to give our nations the ability to understand it is more than military, it is normally almost more a ministry of interior problem to develop the capabilities to do three things: Recognize that we have unconventional warfare going on; characterize it as unconventional as opposed to just normal issues, political issues in the populace; and then attribute it to an aggressor nation if it is being imposed.    So recognize, characterize, and attribute. And, then, when we can do that, we can have other nations to be more involved in how we fight that battle. So we are developing right now capabilities inside these nations to take those steps and get their laws and authorities right inside their own nations to be able to attack this when it occurs to them.</t>
   </si>
   <si>
@@ -583,9 +535,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman. General Breedlove, I would like--I think there are a lot of people that don't understand the important relationship between U.S. European Command and the nation of Israel. Could you brief us on some of our commitments to Israel? Maybe some of our mil-to-mil exercises, that kind of thing. How important is what you do to the nation of Israel?    General Breedlove. Congressman, thank you. Some I can discuss here, others I would be glad to come talk to you in a classified environment.    U.S. European Command has been given the mission of assisting in the defense of Israel. The most--probably the most visible piece of that is our joint work in ballistic missile defense and how we would help Israel to do that because of their, as you know, strategic depth is not something that Israel has and so being able to help them defend that.    And that is--we have a series of exercises that are some of the best that we do in this ballistic missile business. We have great exercises in the air defense, Air Force across the board. And I think, at that point, I would defer to a more classified conversation.</t>
   </si>
   <si>
@@ -610,9 +559,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman. Thank you all for being here. General Breedlove, in your opinion has Russia achieved an operational capability of its INF Treaty-violating ground-launch cruise missile?    General Breedlove. Congressman, I would really like to talk to you about that in a classified environment. And I would--I will get on your calendar to do that.</t>
   </si>
   <si>
@@ -646,9 +592,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman. Thanks for your testimony today. General Breedlove, I wanted to talk to you a little bit about truth in disclosure. I was part of a team to stand up Africa Command back in 2007 and 2010. And you mentioned the 65,000 assigned to you that includes forces that are dual-hatted, components to Africa Command and also forces assigned to you as a staff officer.    Great frustration that, you know, we did not have the forces required to include crisis response forces. So I haven't been there in a while so just wanted to get your perspective on especially with the increasing activity in your theater and responsibilities, how is that working and do you see if there is a crisis where you need a crisis response team in your theater but we also have a Benghazi-like situation in Africa Command, how does that work? Have you seen any shortfalls where you haven't been able to fill missions?    And, also, as we are looking for places to gain savings, I have heard some of my colleagues talk about how Africa Command can just roll back into EUCOM again and, having been a part of that, with all you have on your plate, adding another 53 countries in Africa and the ungoverned spaces and the terrorism threat and everything we are doing there, I strongly disagree with that. So I wanted to hear your perspectives on that proposal as we move forward. Thanks.    General Breedlove. So there has been some very good news since you left in that, as you may or may not heard, we have been given the authority at the combatant commander and deputy combatant commander level between EUCOM and AFRICOM to move forces back and forth without going through the DEPORD [deployment order] book process in the Pentagon. So when----</t>
   </si>
   <si>
@@ -665,9 +608,6 @@
   </si>
   <si>
     <t>412409</t>
-  </si>
-  <si>
-    <t>Richard B. Nugent</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman, and thank you General Breedlove and Ms. Wormuth for being here. Just a follow-up on the A-10 issue, and we all know that it is more than just armor that it can devastate. Having sons that actually saw the use of A-10s on unconventional forces and the fear factor that placed upon them was huge. So I would just, once again, I happen to like the A-10s because my kids, who called upon them to protect them when danger was close, was phenomenal.    But getting past that and we've talked about Russia, I think, and a lot of this needs to be in a classified setting, I agree. But when you talk about ISIS, and particularly forget about ISIS but talk about the Islamic extremism that is rampant across this world, I start to worry that, you know, we try to isolate--you know, we have got European Command, what goes on within Europe. Then we have, you know, Africa Command, which is under-resourced, obviously. One of my sons actually did a tour down in Africa training up Ghanaian soldiers.    But when you look at the threat, and we had King Abdullah here, that really gave us, I think, a very enlightened aspect in regards to, you know, the fight is within Islam itself. And until I think we identify the fact that is where the fight is, that is problematic on strategy.    But he was saying, and I tend to agree, is that it needs to be a coordinated attack across the broad spectrum, and I don't know that we have the ability to have a coordinated fight brought to the Islamic extremists when you have them parceled out by Africa Command, European Command, and what goes on in PACOM [U.S. Pacific Command].    Is there a way to coordinate all of that? Because I worry that we are not--and he was talking about that coordinated approach in particular.    General Breedlove. I will allow the Secretary to talk to the larger part of the question, but let me assure you that we are not doing disparate attacks. I just literally came from Kuwait, where all of the leaders, to include our new Secretary of Defense, came together to talk about just your issue, of how we stay coordinated.    That area of the world, where CENTCOM, AFRICOM, and EUCOM comes together, Rod Rodriguez and Lloyd Austin and I work this personally all the time to not allow seams. Again, witnessed by what we just did in Kuwait. I will turn the rest of the question over to the Secretary.</t>
@@ -1078,11 +1018,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1102,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1128,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1154,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1180,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1206,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1232,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1258,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1284,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1310,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1336,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1362,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1388,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1414,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1440,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1466,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1492,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1518,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1544,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1570,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1596,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1622,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1648,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1674,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1700,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1726,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1752,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1778,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1804,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1832,11 +1714,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1856,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1884,11 +1762,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1908,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1936,11 +1810,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1960,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1988,11 +1858,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2012,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2040,11 +1906,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2064,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2090,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2116,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2142,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2168,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2194,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2220,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>62</v>
-      </c>
-      <c r="H46" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2246,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2272,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2298,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2324,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2350,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2376,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2402,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2428,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2454,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2480,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2506,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2532,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2558,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2584,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2610,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2636,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2662,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2688,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2714,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2740,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2766,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2792,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2818,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2844,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
-      </c>
-      <c r="G70" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2870,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>94</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2896,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>94</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2922,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2948,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>94</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2974,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3000,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>94</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3026,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3052,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
         <v>94</v>
-      </c>
-      <c r="H78" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3078,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3104,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>94</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3130,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3156,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>94</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3182,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3208,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>94</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3234,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>94</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3260,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
-      </c>
-      <c r="G86" t="s">
-        <v>110</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3286,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
-      </c>
-      <c r="G87" t="s">
-        <v>110</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3312,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
-      </c>
-      <c r="G88" t="s">
-        <v>110</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3338,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>114</v>
-      </c>
-      <c r="G89" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3364,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3390,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>114</v>
-      </c>
-      <c r="G91" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3416,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>114</v>
-      </c>
-      <c r="G92" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3442,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G93" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3468,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>114</v>
-      </c>
-      <c r="G94" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3494,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G95" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3520,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>114</v>
-      </c>
-      <c r="G96" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3546,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G97" t="s">
-        <v>125</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3572,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3598,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
-      </c>
-      <c r="G99" t="s">
-        <v>125</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3624,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3650,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3676,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>124</v>
-      </c>
-      <c r="G102" t="s">
-        <v>125</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3702,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
-      </c>
-      <c r="G103" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3728,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
-      </c>
-      <c r="G104" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3754,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
-      </c>
-      <c r="G105" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3780,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
-      </c>
-      <c r="G106" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3806,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3832,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
-      </c>
-      <c r="G108" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3858,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3884,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
-      </c>
-      <c r="G110" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3910,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3936,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G112" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3962,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3988,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
-      </c>
-      <c r="G114" t="s">
+        <v>121</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
         <v>133</v>
-      </c>
-      <c r="H114" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4014,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4040,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>132</v>
-      </c>
-      <c r="G116" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4066,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4092,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>132</v>
-      </c>
-      <c r="G118" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4118,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>150</v>
-      </c>
-      <c r="G119" t="s">
-        <v>151</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4144,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>150</v>
-      </c>
-      <c r="G120" t="s">
-        <v>151</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4170,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4196,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>150</v>
-      </c>
-      <c r="G122" t="s">
-        <v>151</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4222,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4248,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
-      </c>
-      <c r="G124" t="s">
-        <v>151</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4274,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>158</v>
-      </c>
-      <c r="G125" t="s">
-        <v>159</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4300,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>158</v>
-      </c>
-      <c r="G126" t="s">
-        <v>159</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4326,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>158</v>
-      </c>
-      <c r="G127" t="s">
-        <v>159</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4352,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4378,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>158</v>
-      </c>
-      <c r="G129" t="s">
-        <v>159</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4404,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>158</v>
-      </c>
-      <c r="G130" t="s">
-        <v>159</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4430,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>166</v>
-      </c>
-      <c r="G131" t="s">
-        <v>167</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4456,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>166</v>
-      </c>
-      <c r="G132" t="s">
-        <v>167</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4482,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>166</v>
-      </c>
-      <c r="G133" t="s">
-        <v>167</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4508,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4534,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>166</v>
-      </c>
-      <c r="G135" t="s">
-        <v>167</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4560,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4586,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G137" t="s">
-        <v>167</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4612,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>175</v>
-      </c>
-      <c r="G138" t="s">
-        <v>176</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4638,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G139" t="s">
-        <v>176</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4664,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4690,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>175</v>
-      </c>
-      <c r="G141" t="s">
-        <v>176</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4716,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4742,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>175</v>
-      </c>
-      <c r="G143" t="s">
-        <v>176</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4768,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4794,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>175</v>
-      </c>
-      <c r="G145" t="s">
-        <v>176</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4820,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4846,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>175</v>
-      </c>
-      <c r="G147" t="s">
-        <v>176</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4872,13 +4520,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4898,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>175</v>
-      </c>
-      <c r="G149" t="s">
-        <v>176</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4924,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>188</v>
-      </c>
-      <c r="G150" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4950,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>188</v>
-      </c>
-      <c r="G151" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4976,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5002,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>188</v>
-      </c>
-      <c r="G153" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5028,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5054,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>188</v>
-      </c>
-      <c r="G155" t="s">
-        <v>189</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5080,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5106,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>197</v>
-      </c>
-      <c r="G157" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5132,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>197</v>
-      </c>
-      <c r="G158" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5158,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>197</v>
-      </c>
-      <c r="G159" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5184,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>197</v>
-      </c>
-      <c r="G160" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5210,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>197</v>
-      </c>
-      <c r="G161" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5236,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>197</v>
-      </c>
-      <c r="G162" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5262,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>197</v>
-      </c>
-      <c r="G163" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5288,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>197</v>
-      </c>
-      <c r="G164" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5314,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5340,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>197</v>
-      </c>
-      <c r="G166" t="s">
-        <v>198</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5366,13 +4976,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>209</v>
-      </c>
-      <c r="G167" t="s">
-        <v>210</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5392,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>209</v>
-      </c>
-      <c r="G168" t="s">
-        <v>210</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5418,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>209</v>
-      </c>
-      <c r="G169" t="s">
-        <v>210</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5444,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5470,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>209</v>
-      </c>
-      <c r="G171" t="s">
-        <v>210</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5496,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>216</v>
-      </c>
-      <c r="G172" t="s">
-        <v>217</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5522,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5548,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>216</v>
-      </c>
-      <c r="G174" t="s">
-        <v>217</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5574,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94097.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94097.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. And, obviously, that is the game-changing issue of the European Command, Russia and President Putin's aggressiveness in the Ukraine, and I think the chairman summed it up fairly well.    What Mr. Putin is trying to do is fundamentally alter the post-World War II construct in terms of how the world is organized. And it is very unfortunate. You know, when the Soviet Union broke up and the Cold War ended, there was a real opportunity to integrate Russia into that world order which has worked reasonably well. And Russia would have been a great partner and, you know, history can be written about why that didn't work out.    The bottom line is Russia is now attempting to set up again a bi-polar world. They see it as a zero-sum game. What is good for the West is not good for them and they are attempting to reestablish their power and break away as many people as possible from Western influence. And that is bad enough. Worse is that they are aggressive militarily in how they go about trying to do that.    We have seen it in Crimea, we have seen it in Eastern Ukraine, and the real concern is you read about how Russia's top leadership looks at this issue. There is really not much reason to believe that they are going to stop. They believe this sort of aggression has been rewarded. That they have been able to take territory. That they have been able to reestablish themselves as a legitimate power on the world stage.    So confronting that threat is the number one biggest issue, and it is not easy to confront. We do not want to start another war. We want to figure out some way to stop this aggression in a peaceful means. And we have to work with our NATO and European partners in order to achieve that. And, yet, that is not always an easy process either.    But it does also raise questions about something I think this committee had long assumed, was that we could afford to substantially draw down our presence in Europe in order to focus whether it was on the pivot to Asia or to focus on the rising tide of Islamic extremists in various countries in confronting the terrorist threat that that presents.    Now we realize that our presence in Europe is more important than it used to be. So be interested to hear how are we properly positioned in Europe to confront this threat. How are we aligned with our European allies to, hopefully, you know, maximize our assets and theirs, put them together in the best way possible? And what is the most logical way to confront Putin's aggression. I think that is the fundamental and central question that we face in Europe. I look forward to the testimony.    I apologize, I may have to leave a little early. I am still, as I said, I am in between hip surgeries. Good news is my left hip is getting a lot better. Bad news is my right hip is getting a lot worse. But the surgery is coming so sitting for extended periods of time is not something I can do so I may not be here for the whole hearing, but I do look forward to testimony and questions. Thank you.    [The prepared statement of Mr. Smith can be found in the Appendix on page 48.]    The Chairman. Thank you. We are pleased to welcome Ms. Christine Wormuth, Under Secretary of Defense for Policy, and General Philip Breedlove, Commander, Supreme Allied Command Europe and U.S. European Combatant Command. Thank you all for being here.    Without objection, your full written statement will be made part of the record. And we would invite you to make what oral statements you would like at this point.    Ms. Wormuth.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Wormuth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Secretary Wormuth. Thank you, Chairman Thornberry, and Ranking Member Smith and distinguished members of the committee. I very much appreciate the opportunity to be with you all today to talk about the security situation in Europe and our relationship with allies and partners in the region.    As both of you have noted, in the last 18 months the security situation in Europe has changed quite significantly. But despite these challenges, Europe is a cornerstone of our engagement with the rest of the world and a catalyst for our global cooperation.    Time and again, Europe and NATO have proven to be our indispensable strategic partners. We believe that will continue to be true and, for these reasons, U.S. engagement in Europe is and will remain a vital element of our national security strategy.    It has been almost a year since Russia's occupation and attempted annexation of Crimea. Since that time, we have seen Russia funding and arming separatists in Eastern Ukraine. We have seen direct Russian participation in the fighting. These actions, coupled with Russia's continued support of frozen conflicts elsewhere, and violations of its obligations under numerous treaties, are undermining European stability.    Russia's actions to undermine the sovereignty of a neighboring country and to attempt to change borders and to change the international order even, but certainly to change borders by force, are unacceptable.    Russia's aggression against Ukraine challenges our vision of a Europe whole and free, which is what we have been working so hard on since the end of the Cold War. It changes Europe's security landscape, it is causing instability, obviously, on NATO's borders, and we are steadfast as a nation in opposing Russia's destabilizing actions.    To do that, we have been working closely with Europe and other partners and allies; first and foremost, to impose real costs on Russia for its aggressive actions. This has included diplomatic isolation and economic sanctions which, combined with falling oil prices, are having a substantial and mounting impact on Russia's economy.    We are also taking visible, concrete measures to reassure our allies and partners in Europe and to deter further Russian aggression. For example, since May 2014, NATO has been reassuring allies and deterring Russia by maintaining a continuous land, air, and maritime presence and increasing military activity particularly in the eastern part of the NATO Alliance. These measures are defensive, they are proportionate, and they are fully in line with our obligations as NATO members regarding allied defense.    We are also, as part of our strategy, providing substantial support to Ukraine as it is dealing with simultaneous economic and military crises. Since the start of the crisis, we have increased our security-related assistance to Ukraine significantly, to both its military, its national guard, and its border guard services. And, together, next year, in fiscal year 2015, DOD and the State Department will be providing $120 million to Ukraine as part of the European Reassurance Initiative.    But it is, I think, important to also remember that NATO and our European allies are also on the frontlines of the fight against ISIL [Islamic State of Iraq and the Levant]. There the United States has been leading a coalition of over 60 nations across multiple lines of efforts ranging from military contributions to humanitarian assistance.    As part of the coalition military campaign, Europe has been stepping up to fill critical roles, particularly in denying ISIL safe haven in Iraq and Syria, and helping us build the capacity of partners to take the fight to ISIL, including by actively striking ISIL targets.    The threat we see of foreign fighters going into Iraq and Syria remains a significant concern for us and for our European allies. We are drawing on all forms of our intelligence to understand and address the flow of foreign fighters and we are working closely with our NATO allies and other partners to have an international effort to try to combat this complex problem.    In addition to the threat of ISIL, it is also, I think, important to note that there is significant instability in the Middle East and North Africa that also affects NATO's security, especially for those allies that are on the southern flank of the Alliance. The movement of thousands of migrants to the shores of southern Europe can bring instability and sometimes violence, particularly because of the transnational criminal networks that are involved in human trafficking.    Finally, as we look beyond Europe, it is also useful to reflect on the true strategic partners we have in our European NATO allies for a host of challenges that are well outside of NATO's boundaries. In particular, I just wanted to note how effectively we work together with NATO allies in Africa to be part of the international community's response to the Ebola crisis.    Under Operation United Assistance, the Department has supported the USAID [U.S. Agency for International Development]-led effort to break the back of the Ebola outbreak, with the United States focusing primarily in Liberia. This mission isn't complete and many lives have been lost but I think we can be proud as part of the international community with the strong roles that we have played and that European allies have played to successfully mobilize all of our capabilities to address the emergency.    Also, in Afghanistan, NATO allies remain our steadfast partners in the effort to try to help bring civility and security to that country. The Resolute Support Mission, which we launched at the beginning of this year, focuses the efforts of our NATO allies and other partners on training, advising, and assisting the Afghan security institutions at both the ministerial and institutional level. Twenty-six of our allies and 16 partners are providing forces to the Resolute Support Mission, and our allies there have also committed to providing sustainment funding to the Afghan National Security Forces through 2024, which is going to be critical to locking in the gains that we are making there.    Finally, to do all of this together with our NATO allies and to be able to work effectively, it is essential to have a robust force posture in Europe. Our U.S. footprint in Europe gives us the capability to defend our security interests, to enhance trans-Atlantic security, to reassure allies and deter aggression which, again, we certainly see in a very marked way in recent times.    In a time of limited resources, however, the United States has to be more innovative and explore new posture arrangements by increasing our flexibility, our adaptability, and our readiness.    If sequestration returns, and this is something I am very personally concerned about--our ability to sustain our posture in Europe is going to be at significant risk. If sequestration returns, our ability to continue to invest in the capabilities we need and to maintain the readiness levels we need to be able to effectively respond to crises is going to be at significant risk.    This is a very serious concern. I know it is one that many of you share and we look forward to working with this committee and with Congress more broadly to try to find solutions to these budgetary pressures so that we can maintain the U.S. military as the world's finest military force.    Thank you very much for your time today, and I look forward to questions.    [The prepared statement of Secretary Wormuth can be found in the Appendix on page 50.]    The Chairman. Thank you.    General.    General Breedlove. Chairman Thornberry, Ranking Member Smith, distinguished members of the committee, thank you for the opportunity to testify today.    It is an honor to appear before you representing the dedicated soldiers, sailors, airmen, and marines and our civilians of U.S. European Command [EUCOM]. Thank you for all you do to support them as they serve our Nation.    I am particularly happy to be here today with Under Secretary of Defense for Policy Christine Wormuth.    Compared to just one year ago, Europe faces a very different and much more challenging security environment. Our top concern is a resurgent Russia. A Russia attempting to exercise power and influence through the use of force and intimidation. Russia is blatantly challenging the rules and principles that have been the bedrock of European security for decades. The challenge is global, not regional, and enduring, not temporary.    Russian aggression is clearly visible in its illegal occupation of Crimea and in the continued armed conflict in the Donbass, or Eastern Ukraine.    The best way to bring the conflict in Ukraine to an acceptable lasting solution is through a political settlement, one that respects state sovereignty and territorial integrity. But what we have seen recently and, frankly, over the course of the whole conflict, gives us cause for concern.    Russian forces have supplied separatists with heavy weapons, training and mentoring, command and control, artillery fire support, tactical and operational-level air defenses; more than 1,000 pieces of Russian military equipment have been transferred into Ukraine, including tanks, armored personnel carriers, heavy artillery pieces, and other military vehicles and equipment.    And in a number of cases, when the separate offensive or operations were stalled or were threatened, Russian regular forces themselves intervened to right the course. Just this month, Russian forces fought hard to change the facts on the ground just before the cease fire was scheduled to take effect.    These are not the actions of a good faith negotiating partner. Actions matter much more than words, and what we see in the fight on the ground and in the diplomatic efforts designed to resolve it, is a revanchist Russia that does not play by international rules or norms.    The crisis in Ukraine affects more than just Ukraine. Russian activities are destabilizing to neighboring states and to the region as a whole. Russian illegal actions push instability closer to the boundaries of NATO. As President Obama has clearly stated, the United States will uphold its Article 5 commitments under the Washington Treaty.    In turn, Russia is learning lessons from our responses to their actions. If they feel rewarded by the outcomes, this might embolden them to try them again elsewhere. And the rest of the world, states and non-state actors alike, are also keeping eyes on how these events unfold.    For the longer term, it makes sense to aim for a new Russia-U.S. relationship and a new NATO-Russia relationship that are based on mutual respect and shared interest. A Europe whole, free, at peace, and prosperous, is a vision that would benefit everyone. And it would offer the best possible long-term protection of U.S. national security interests.    At the time same, Europe also faces a surge of violent extremism. The executions and other brutal actions that ISIL has carried out show their total disregard for human life. European nations are rightly worried about foreign fighters returning home to Europe from the fight in Syria and Iraq with new skills and with malign intent. Attacks like those in France, Belgium, and Denmark are only likely to become more frequent.    Foreign fighters are part of a much broader pattern of insecurity in Europe's south, with its roots in the Middle East and North Africa, with flows of migrants and criminal transit routes. The spread of instability into Europe and the reach of transnational terrorism could have a direct bearing on the national security and the U.S. homeland. These challenges are transnational. To solve them, nations need to work together and our civilian and military institutions are and need to continue to cooperate.    EUCOM is working with European nations bilaterally and supporting NATO Alliance initiatives to meet and counter this new and more complex security environment.    Based on the decisions made at NATO's Wales Summit last year, the Alliance is adapting in order to improve its readiness and responsiveness. The Readiness Action Plan, or RAP, is well underway. Our allies are stepping up, making contributions and investments that give them a real stake in the outcome.    The United States will have a key and sustained role to play supporting and enabling these changes, especially in critical areas that are the hardest for our allies to provide like lift, sustainment, and enablers such as ISR [intelligence, surveillance, and reconnaissance]. At the same time, our own U.S. efforts in Europe remain utterly essential, more important now than at any time in recent history. With Russian troops illegally occupying Crimea, soldiers from the 173rd Airborne Brigade in Europe deployed to the Baltic States in Poland with only 96 hours' notice to reassure our allies and our Air Force began flying missions out of Poland within 18 hours of notice.    The reason that we could respond so quickly is that we were there forward and ready. There is simply no substitute for our forward force presence in Europe. It is the bedrock of our ability to assure our allies, to deter real and potential adversaries, and to act in a timely way should deterrence fail.    That forward force presence ensures that EUCOM can play a full array of essential supporting roles for other combatant commands from neighboring AFRICOM [U.S. Africa Command] and CENTCOM [U.S. Central Command] to STRATCOM [U.S. Strategic Command] and TRANSCOM [U.S. Transportation Command]. And it supports all the other critical facets of EUCOM's mission, including, very importantly, fulfilling our commitment to the defense of Israel.    Rotating presence is no substitute for permanent forward presence in the building of relationships or signaling of our commitment. But genuine and fully funded rotational presence can play a very important role in helping to meet requirements in our theatre if it is heel-to-toe and fully resourced.    The budgetary challenges and resourcing tradeoffs that we face now, based on the Budget Control Act, have already forced EUCOM to assume risk. Our timelines are longer, our preparations are less robust, and our fundability to deter and defeat in a timely and effective manner is less sure than it could be. The security challenges in and around Europe are only growing sharper and more complicated at the same time.    Your support of EUCOM's mission and your efforts to chart a longer-term path toward properly resourcing defense are critical steps to ensuring the ability of EUCOM to protect and defend its nation and do its mission.    Thank you for your time and your attention, and I look forward to your questions.    [The prepared statement of General Breedlove can be found in the Appendix on page 57.]    The Chairman. Thank you. Thank you both for your testimony.    General Breedlove, you heard me mention at the beginning that I support Mr. Smith's legislation that would require defensive lethal assistance be provided to the Ukrainians. Have you provided options to the administration for various kinds of weapons and equipment that could be provided to the Ukrainians that would make a significant difference in their ability to defend themselves and, part b, is if a decision were made, how long would it take to get it to them?    General Breedlove. Chairman, thank you for the question. And these are important things, especially the second part as it relates to how this would play out.    So what we have seen across the last year in discussing these issues with Ukraine is a very consistent picture of the things that they tell us they need to move forward in their struggle.    Additionally, the U.S. European Command has had a series of broad and deep conversations across all of the aspects of military business with the Ukrainian military and their defense ministry. And what we have observed about Ukraine is very consistent with what Ukraine was telling us about Ukraine.    And so, Chairman, I have advised to my chain of command those things that we have learned in these discussions and talked about, categories of things that the Ukrainians would need.    All of these options have timelines. Some timelines are short and some are longer. It is pretty straightforward. Small arms and some of the other things that you might consider are a very short timeline. Longer, more sophisticated capabilities take training, they take delivery, et cetera, so there is a mixed bag, I think is the best way to answer your question, of not only delivery, but training required to bring things to fruition.    The Chairman. And I appreciate the point about training. Obviously, that takes some time. I am also--remember that in this room just a couple weeks ago we had the King of Jordan who said that he is incredibly frustrated when equipment and weapons he has requested have been approved but our own bureaucracy still takes so long to actually get the things delivered. And so my offer to you is that I hope a decision is made one way or another soon. If there is something that we can do to speed delivery once that decision is made, whether we force it or the President decides on his own, then we want to do that.    Ms. Wormuth, let me just ask you briefly. This administration probably before your time made a big deal about a reset of Russia--of relations with Russia. Even the policy folks in the administration admit that didn't really work out very well, right?</t>
   </si>
   <si>
@@ -67,6 +79,12 @@
     <t>400356</t>
   </si>
   <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman, and thank you, both of the witnesses, for being before us.    I was just in for a NATO parliamentary meeting and I was in Turkey with Mr. Turner and Colonel Cook, so I won't ask a lot of questions. But I do have a couple of them.    The first one is this whole issue of trying to counter ISIS [Islamic State of Iraq and Syria] recruiting through the social media, especially to the young people who we see going. What is the military and what--you know, how are we working with our European allies, in particular, to ensure that this recruitment isn't going on, not just in the United States but, of course, in Europe.    And then my second questions would be with respect to Turkey who we know at this point is a key NATO ally, has been for a while. We have had our ups and downs in that relationship. It is alarming to see recent reports of the Turkish government turning a blind eye to arming some of the extremist groups like al-Nusra and--some of these reports even suggest that they help groups to capture Syrian towns from the Syrian army with the use of artillery to move in and out across the Turkish border, et cetera.    So while we are all concerned about ISIS and its great cancer in the region, groups like al-Nusra and its allies are not far behind from that. So can either of you comment about what we are seeing there on the ground and what we intend to do about it? Thank you.</t>
   </si>
   <si>
@@ -79,6 +97,12 @@
     <t>400209</t>
   </si>
   <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jones. Thank you, Mr. Chairman.    And, Madam Secretary, General Breedlove, thank you for being here and your service to our Nation.    Madam Secretary, you were mentioning in some of your comments about sequestration and we have heard this before, from outside think tanks who have testified, as well as military and administration officials like yourself.    I think we all know that we are looking at some major, major decisions forthcoming. My concern is that it is almost like we know that we have a problem, but we are not willing to deal with the problem.    General Breedlove, I have great respect for all of our military services. I know the stress you all have been under, as it relates to budgets, and this brings me to the point I am trying to make.    First of all, Madam Secretary, has this administration brought in inspector generals, like John Sopko, to talk about the waste, fraud, and abuse in Afghanistan?    You made mention in your comments that things in Afghanistan; we are going to be there to 2024. That is the agreement that the President signed with the Afghan government. And yet, the waste, fraud, and abuse continues to go on and on. Well, that takes away from the military and their needs.    I have said many times that I just do not see how this country can continue to do what is necessary to maintain a strong military, unless there is some debate in the Congress about a war tax, because I don't know where the money is going to come from.    If we don't level with the American people in this very unsafe world that we live in, if we want to win the war or protect Americans then we cannot continue to go into deficit situations. And this committee is probably tired of hearing me saying it, but we are $18.1 trillion in debt.    And every time I have been told that we--bomb in Iraq for about an hour is $300 million an hour. So, I mean, at some point in time, I think the administration has got to say to Congress, we have got to pay for this war. And it is unfair for the American people not to have a Congress that is willing to do what is necessary to rebuild and strengthen our military.    I would like to know your--excuse me; your feelings, as well as General Breedlove's, because you can't do the job if you don't have the armaments. If you can't afford to buy the bombs, you can't bomb. And that is where I am concerned, not just for these few months in front of us, but for the years, to 2024, using the time in Afghanistan. Any comments?</t>
   </si>
   <si>
@@ -88,6 +112,12 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you to the witnesses.    General, in your opening remarks, you used the term resurgent Russia, which--I would just like to explore that with you for a minute.    I mean, obviously, a big part of the resurgence is more investment in military spending by the Russian government. I just wonder if you could sort of walk us through what capabilities and forces have been the focus of that change.    General Breedlove. Thank you, Congressman.    And what we don't want to do is overstate. You know, that has happened in the past, that we used to talk about a 10-foot-tall Russia. But what Russia has done, over the past 5 years, has steeply ramped up their investment in their military, period.    We see a strong commitment to their nuclear forces in upgrading their nuclear forces, making them more survivable and then making the bench deeper. So a strong emphasis on their nuclear forces.    And then, what they have learned through the years. As you know, when they went into Georgia, it didn't go real well for them and they learned some tough lessons. And so they have addressed those lessons in their conventional forces and they have invested in their mobility, their readiness; they are training them to a higher level and they are outfitting them with new equipment to make them more capable when they take the field.    So it is sort of a bifurcated path, strong emphasis on nuclear weapons, and then the kind of money that you would smartly invest in order to bring up the readiness and capability of their conventional forces.</t>
   </si>
   <si>
@@ -106,6 +136,12 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Chairman, thank you.    And, Ms. Wormuth, a few weeks ago, the chairman put together a round table with some of the best defense planners and strategists in the country and they all concurred that it would be fair to categorize Mr. Putin as opportunistic.    That means he would see an opportunity like Ukraine, move in there, then evaluate it, based on the responses, for his next movement; that the Chinese were long-term strategists, but that the United States has become more reactionary, and they felt that one of the biggest weaknesses we had now was a lack of strategy.    When I listen to the chairman correctly talking about the need to perhaps give defensive [lethal] assistance, weapons and equipment, to the Ukraine now--Ukraine government, I am concerned because, for the longest time, this administration would not even allow our military to give information, which is kind of the baby step before you do anything else, to the people in Ukraine.    We couldn't tell them about Russian troop movements, capabilities, locations, all of those kinds of things. In hindsight, was that an incorrect strategy?</t>
   </si>
   <si>
@@ -184,6 +220,12 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    General Breedlove, good to see you. Thank you for your comments before the NATO Parliamentary Assembly and the Munich Security Conference.    You have been a great voice of trying to give us clarity in this time period of what you have described as hybrid warfare, where we see ambiguity that Russia is trying to create on their actions, which makes it more difficult for people to formulate policy and then address that policy with having clarity, so thank you for the clarity.    Ms. Wormuth, I have a few questions for you, because also, when your position is policy, what we don't want to have is issues of ambiguity of things that are true or not true: facts.    We can disagree as to policy, but facts are those things that we shouldn't allow ourselves to degrade to ambiguity, as Vladimir Putin tries to get us to do in hybrid warfare.    Phased Adaptive Approach; you will not deny that Phase 4 of the Phased Adaptive Approach was canceled, would you not?</t>
   </si>
   <si>
@@ -277,6 +319,9 @@
     <t xml:space="preserve">    Mr. Turner. Mr. Chairman, thank you, Mr. Chairman.    The Chairman. The time of the gentleman has expired.    Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    General Breedlove, if we arm Ukraine, what will Russia do?    General Breedlove. Congressman, it is a great question. It is one that we are all working very hard on now. Clearly, we don't know what Mr. Putin will do. What we need to do is look at what is on the ground, the capabilities and capacities that he is building, and make inference from those capability and capacities. Right now, we are not arming the Ukrainians with lethal weapons.    And what we see is Russia continues to build their force, continues to provide capability to the Eastern Ukrainians. And so no--the fact that we are not doing now is not changing their path forward. So I think that we have to be cognizant that if we arm the Ukrainians, it could cause positive results, it could cause negative results, but what we are doing now is not changing the results on the ground.</t>
   </si>
   <si>
@@ -322,6 +367,12 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    And Mr. Chairman, Mr. Turner pursued my line of questioning with Ms. Wormuth and he did a much better job than I would have done. So if it is alright, I am just going to suggest that some of us were very concerned about the New START because we saw it allow Russia to build up a stockpile of strategic weapons and for us to be required to build down.    And it did not take into consideration the tactical capability of Russia, especially in Europe. And in retrospect, it appears to me that this Russia reset has been a startling failure. And that is a sincere conclusion, and I know it doesn't really probably track with your own perspective.    So I am going to, if I could, switch over to General Breedlove here.    And General, you know, every time you come here I try to say something nice about you because I think you--people like you that stand out there and give your whole lives for the cause of freedom are the noblest among us. And I am just wondering how he keeps carrying those stars he keeps--they keep putting on him here. It is starting to be pretty good thing for such an old guy, you know? But I say that having been in an F-16 with him during a 360-degree loop, so I had a lot of confidence in him at that time.    But the EPAA [European Phased Adaptive Approach] Phase 2 was set fully to be implemented this year. Can you just discuss the need for increased missile defense capability in your AOR [area of responsibility]?    General Breedlove. Congressman, thank you for that. EPAA Phase 2 is on track for delivery capability in 2016 to be ready. We see all of the actions on the ground doing well. The budget is going well. We may be a month or so behind in the construction but we think we are ready to deliver on time for that. We see the authorities and everything that we need shaping up there. And we also see that the progress on starting the next phase in Poland is tracking as well.</t>
   </si>
   <si>
@@ -334,6 +385,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, thank you, Mr. Chairman.    Thank you both for being here, for your service.    You know, we have had a discussion about just the question what would Russia do, and I wanted to just be certain and clarify there are, obviously, proposals about providing more than non-lethal support to Ukraine and that does trigger our thinking about their using conventional, perhaps even tactical weapons at some point. Can you tell us some more about, you know, how that calculation is and sort of the response of the Congress and what you would like to see?</t>
   </si>
   <si>
@@ -361,6 +418,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Ms. Wormuth, General Breedlove, thank you for joining us.    I want to ask, so far, the administration's strategy to counter Russian aggression is focused on sanctions. We heard senior Russian officials, though, say that Russians will eat less food and use less electricity. Just this past Saturday, Secretary Kerry said the administration is exploring additional sanctions on Russia. Give me your perspective.    How effective to this point have sanctions been? Will they be more effective in the future in changing the Russian calculus? And what military options have you suggested to the administration to counter Russian aggression in Ukraine?</t>
   </si>
   <si>
@@ -382,6 +445,12 @@
     <t>412632</t>
   </si>
   <si>
+    <t>Moulton</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    General Breedlove, I am interested in whether you think that we have essentially exhausted our means of supporting Ukraine with non-lethal aid at this point? And whether that, therefore, lethal aid is the next logical step?    General Breedlove. Congressman, no, I don't think we have exhausted the options in non-lethal aid, but I don't think that is directly tied to should lethal be the next step.</t>
   </si>
   <si>
@@ -433,6 +502,12 @@
     <t>412453</t>
   </si>
   <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibson. Thanks, Mr. Chairman.    Appreciate the panelists being here today.    First, a question about Lieutenant Nadiya Savchenko. I am interested in what we know about her current health and about release.    General Breedlove. Congressman, we don't know as much as we would like to know. What we do hear is that she is well cared for. It is not an arduous affair. But that is clearly what we are being told. We have no indications one way or the other.    And this is a strong point of constant contact as Ukraine negotiates forward.</t>
   </si>
   <si>
@@ -454,6 +529,12 @@
     <t>400232</t>
   </si>
   <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman. My quick assessment is that, for Russia on the economic front, they care about what is going on and they can care more. Diplomatically, they don't care what people think, and militarily, the West has to find a way to get them to care more. And right now, we are not, because backing diplomacy with nothing is going to continue to get us--you know, we will have Minsk III and Minsk IV and Minsk V and still no action out of Russia, in my view.    General, I want to ask you a question. I was asking you, or somebody, at the NATO PA [Parliamentary Assembly], and it is simple. I mean, do you think Russia understands the difference between a NATO country and a non-NATO country?    General Breedlove. Congressman, the short answer is yes. I believe they do understand what Article 5 means and I think they do respect that. But that does not mean that they will not reach out to those dense Russian-speaking populations that might be in a couple of our border NATO nations to see if there is a way to raise and foment unrest there.</t>
   </si>
   <si>
@@ -475,6 +556,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman, ma'am, General Breedlove. General, thank you for joining me at Robins Air Force Base a couple of weeks ago. We have picked up all the Georgia Tech stickers and tags that we handed out prior to your arrival, but should you choose to come back, we will be more than willing to hand them out again. And I hope you will. I hope you will join us at Robins or at Moody, but I know you are busy.    And I want to talk about one of the platforms that flies out of Robins Air Force Base right now, if I can, and that is the JSTARs [Joint Surveillance Target Attack Radar System]. We have worked to recapitalize that program over the last several years. The Air Force has asked for that. Certainly, want to continue that.    The new budget submission provides funding to keep the five additional E-8Cs [JSTARS] that were scheduled for divestment to recapitalize the fleet. And just like to hear the battle management command and control capabilities of that system, how they have benefited in the current fights that we are in, that you are directly in control of and that capability.    And then again, making sure that--understanding the needs of that platform. We are going to continue with the recapitalization of it to get that ISR platform that--not only us, but our allies' needs in these fights.    General Breedlove. Congressman, thanks for that. And I will refrain from the Georgia-Georgia Tech discussion.    Clearly, the capabilities of this aircraft are key and essential to everything that we do. The ability not only to have some command and control capability aloft but the other part of the mission and looking at the ground, et cetera, et cetera. So we are--as I would say that every COCOM [combatant commander] that sits here in front of you would tell you that these are capabilities we need into the future to be able to do not only our ISR business, but our command and control.</t>
   </si>
   <si>
@@ -499,6 +586,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman. General Breedlove, I am wondering if you can talk to the unconventional tactics being used by Russia, specifically what is being done to counter those? You know, when we look at Ukraine, everyone is--obviously recognizes that there is no head-to-head or tank-to-tank battle that is possible between Ukraine and Russia. So I am wondering what is being done, whether it is done by the U.S. or done by other countries, to assist Ukraine.    We have talked about lethal assistance but also, with regards to training assistance for them to counter these unconventional tactics with unconventional tactics and to begin to exact a toll on the Russian military that becomes more evident to the Russian people beyond the toll that is there from the sanctions.    General Breedlove. Congressman, thanks. And if I could just open the question a little bit, too. We talk a lot about the unconventional tactics in the military side but I think we have to remember that they are being unconventional in diplomatic, incredibly unconventional in the information sphere, and then they are using those sort of tough tools in the economics, as well. So, the ``D'' [diplomatic], the ``I'' [intelligence], and the ``E'' [economic] of DIME are all in unconventional operations for the Russians. And so we need to help our partners to be able to work that.    Broadly, then, in the military piece, there are three things we are helping all of our nations and this is work we are doing in the Baltics right now even more so than in Ukraine, to preclude this problem in the future, and that is to give our nations the ability to understand it is more than military, it is normally almost more a ministry of interior problem to develop the capabilities to do three things: Recognize that we have unconventional warfare going on; characterize it as unconventional as opposed to just normal issues, political issues in the populace; and then attribute it to an aggressor nation if it is being imposed.    So recognize, characterize, and attribute. And, then, when we can do that, we can have other nations to be more involved in how we fight that battle. So we are developing right now capabilities inside these nations to take those steps and get their laws and authorities right inside their own nations to be able to attack this when it occurs to them.</t>
   </si>
   <si>
@@ -535,6 +628,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman. General Breedlove, I would like--I think there are a lot of people that don't understand the important relationship between U.S. European Command and the nation of Israel. Could you brief us on some of our commitments to Israel? Maybe some of our mil-to-mil exercises, that kind of thing. How important is what you do to the nation of Israel?    General Breedlove. Congressman, thank you. Some I can discuss here, others I would be glad to come talk to you in a classified environment.    U.S. European Command has been given the mission of assisting in the defense of Israel. The most--probably the most visible piece of that is our joint work in ballistic missile defense and how we would help Israel to do that because of their, as you know, strategic depth is not something that Israel has and so being able to help them defend that.    And that is--we have a series of exercises that are some of the best that we do in this ballistic missile business. We have great exercises in the air defense, Air Force across the board. And I think, at that point, I would defer to a more classified conversation.</t>
   </si>
   <si>
@@ -559,6 +658,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman. Thank you all for being here. General Breedlove, in your opinion has Russia achieved an operational capability of its INF Treaty-violating ground-launch cruise missile?    General Breedlove. Congressman, I would really like to talk to you about that in a classified environment. And I would--I will get on your calendar to do that.</t>
   </si>
   <si>
@@ -592,6 +697,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman. Thanks for your testimony today. General Breedlove, I wanted to talk to you a little bit about truth in disclosure. I was part of a team to stand up Africa Command back in 2007 and 2010. And you mentioned the 65,000 assigned to you that includes forces that are dual-hatted, components to Africa Command and also forces assigned to you as a staff officer.    Great frustration that, you know, we did not have the forces required to include crisis response forces. So I haven't been there in a while so just wanted to get your perspective on especially with the increasing activity in your theater and responsibilities, how is that working and do you see if there is a crisis where you need a crisis response team in your theater but we also have a Benghazi-like situation in Africa Command, how does that work? Have you seen any shortfalls where you haven't been able to fill missions?    And, also, as we are looking for places to gain savings, I have heard some of my colleagues talk about how Africa Command can just roll back into EUCOM again and, having been a part of that, with all you have on your plate, adding another 53 countries in Africa and the ungoverned spaces and the terrorism threat and everything we are doing there, I strongly disagree with that. So I wanted to hear your perspectives on that proposal as we move forward. Thanks.    General Breedlove. So there has been some very good news since you left in that, as you may or may not heard, we have been given the authority at the combatant commander and deputy combatant commander level between EUCOM and AFRICOM to move forces back and forth without going through the DEPORD [deployment order] book process in the Pentagon. So when----</t>
   </si>
   <si>
@@ -608,6 +719,12 @@
   </si>
   <si>
     <t>412409</t>
+  </si>
+  <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman, and thank you General Breedlove and Ms. Wormuth for being here. Just a follow-up on the A-10 issue, and we all know that it is more than just armor that it can devastate. Having sons that actually saw the use of A-10s on unconventional forces and the fear factor that placed upon them was huge. So I would just, once again, I happen to like the A-10s because my kids, who called upon them to protect them when danger was close, was phenomenal.    But getting past that and we've talked about Russia, I think, and a lot of this needs to be in a classified setting, I agree. But when you talk about ISIS, and particularly forget about ISIS but talk about the Islamic extremism that is rampant across this world, I start to worry that, you know, we try to isolate--you know, we have got European Command, what goes on within Europe. Then we have, you know, Africa Command, which is under-resourced, obviously. One of my sons actually did a tour down in Africa training up Ghanaian soldiers.    But when you look at the threat, and we had King Abdullah here, that really gave us, I think, a very enlightened aspect in regards to, you know, the fight is within Islam itself. And until I think we identify the fact that is where the fight is, that is problematic on strategy.    But he was saying, and I tend to agree, is that it needs to be a coordinated attack across the broad spectrum, and I don't know that we have the ability to have a coordinated fight brought to the Islamic extremists when you have them parceled out by Africa Command, European Command, and what goes on in PACOM [U.S. Pacific Command].    Is there a way to coordinate all of that? Because I worry that we are not--and he was talking about that coordinated approach in particular.    General Breedlove. I will allow the Secretary to talk to the larger part of the question, but let me assure you that we are not doing disparate attacks. I just literally came from Kuwait, where all of the leaders, to include our new Secretary of Defense, came together to talk about just your issue, of how we stay coordinated.    That area of the world, where CENTCOM, AFRICOM, and EUCOM comes together, Rod Rodriguez and Lloyd Austin and I work this personally all the time to not allow seams. Again, witnessed by what we just did in Kuwait. I will turn the rest of the question over to the Secretary.</t>
@@ -968,7 +1085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -976,7 +1093,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,4181 +1115,4914 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
       <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
       <c r="H26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G58" t="s">
+        <v>68</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G60" t="s">
+        <v>68</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G66" t="s">
+        <v>68</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>101</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>101</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>101</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>101</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>101</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G86" t="s">
+        <v>117</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G87" t="s">
+        <v>117</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G88" t="s">
+        <v>117</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G89" t="s">
+        <v>123</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G91" t="s">
+        <v>123</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G92" t="s">
+        <v>123</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G93" t="s">
+        <v>123</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G94" t="s">
+        <v>123</v>
+      </c>
       <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G95" t="s">
+        <v>123</v>
+      </c>
       <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G96" t="s">
+        <v>123</v>
+      </c>
       <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G97" t="s">
+        <v>134</v>
+      </c>
       <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G99" t="s">
+        <v>134</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G101" t="s">
+        <v>134</v>
+      </c>
       <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>114</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G102" t="s">
+        <v>134</v>
+      </c>
       <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>121</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G103" t="s">
+        <v>143</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>121</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G104" t="s">
+        <v>143</v>
+      </c>
       <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>121</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G105" t="s">
+        <v>143</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G106" t="s">
+        <v>143</v>
+      </c>
       <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>121</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G108" t="s">
+        <v>143</v>
+      </c>
       <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G110" t="s">
+        <v>143</v>
+      </c>
       <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>121</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G112" t="s">
+        <v>143</v>
+      </c>
       <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>121</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G114" t="s">
+        <v>143</v>
+      </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>121</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G116" t="s">
+        <v>143</v>
+      </c>
       <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>121</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G118" t="s">
+        <v>143</v>
+      </c>
       <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G119" t="s">
+        <v>162</v>
+      </c>
       <c r="H119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>138</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G120" t="s">
+        <v>162</v>
+      </c>
       <c r="H120" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>138</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G122" t="s">
+        <v>162</v>
+      </c>
       <c r="H122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G124" t="s">
+        <v>162</v>
+      </c>
       <c r="H124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G125" t="s">
+        <v>171</v>
+      </c>
       <c r="H125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>145</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G126" t="s">
+        <v>171</v>
+      </c>
       <c r="H126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>145</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G127" t="s">
+        <v>171</v>
+      </c>
       <c r="H127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G129" t="s">
+        <v>171</v>
+      </c>
       <c r="H129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>145</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G130" t="s">
+        <v>171</v>
+      </c>
       <c r="H130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>152</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G131" t="s">
+        <v>180</v>
+      </c>
       <c r="H131" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>152</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G132" t="s">
+        <v>180</v>
+      </c>
       <c r="H132" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G133" t="s">
+        <v>180</v>
+      </c>
       <c r="H133" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>152</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G135" t="s">
+        <v>180</v>
+      </c>
       <c r="H135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>152</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G137" t="s">
+        <v>180</v>
+      </c>
       <c r="H137" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G138" t="s">
+        <v>190</v>
+      </c>
       <c r="H138" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>160</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G139" t="s">
+        <v>190</v>
+      </c>
       <c r="H139" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I139" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>160</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G141" t="s">
+        <v>190</v>
+      </c>
       <c r="H141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>160</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G143" t="s">
+        <v>190</v>
+      </c>
       <c r="H143" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>160</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G145" t="s">
+        <v>190</v>
+      </c>
       <c r="H145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I145" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>160</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G147" t="s">
+        <v>190</v>
+      </c>
       <c r="H147" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>160</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G149" t="s">
+        <v>190</v>
+      </c>
       <c r="H149" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I149" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>172</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G150" t="s">
+        <v>204</v>
+      </c>
       <c r="H150" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I150" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>172</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G151" t="s">
+        <v>204</v>
+      </c>
       <c r="H151" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>172</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G153" t="s">
+        <v>204</v>
+      </c>
       <c r="H153" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>172</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G155" t="s">
+        <v>204</v>
+      </c>
       <c r="H155" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I155" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>180</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G157" t="s">
+        <v>214</v>
+      </c>
       <c r="H157" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I157" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>180</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G158" t="s">
+        <v>214</v>
+      </c>
       <c r="H158" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I158" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>180</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G159" t="s">
+        <v>214</v>
+      </c>
       <c r="H159" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I159" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>180</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G160" t="s">
+        <v>214</v>
+      </c>
       <c r="H160" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I160" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>180</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G161" t="s">
+        <v>214</v>
+      </c>
       <c r="H161" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I161" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>180</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G162" t="s">
+        <v>214</v>
+      </c>
       <c r="H162" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I162" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>180</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G163" t="s">
+        <v>214</v>
+      </c>
       <c r="H163" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I163" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>180</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G164" t="s">
+        <v>214</v>
+      </c>
       <c r="H164" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I164" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>180</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G166" t="s">
+        <v>214</v>
+      </c>
       <c r="H166" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I166" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>191</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>226</v>
+      </c>
+      <c r="G167" t="s">
+        <v>227</v>
+      </c>
       <c r="H167" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>228</v>
+      </c>
+      <c r="I167" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>191</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>226</v>
+      </c>
+      <c r="G168" t="s">
+        <v>227</v>
+      </c>
       <c r="H168" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>228</v>
+      </c>
+      <c r="I168" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>191</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>226</v>
+      </c>
+      <c r="G169" t="s">
+        <v>227</v>
+      </c>
       <c r="H169" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>228</v>
+      </c>
+      <c r="I169" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>191</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>226</v>
+      </c>
+      <c r="G171" t="s">
+        <v>227</v>
+      </c>
       <c r="H171" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>228</v>
+      </c>
+      <c r="I171" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>197</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>234</v>
+      </c>
+      <c r="G172" t="s">
+        <v>235</v>
+      </c>
       <c r="H172" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="I172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>197</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>234</v>
+      </c>
+      <c r="G174" t="s">
+        <v>235</v>
+      </c>
       <c r="H174" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="I174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>201</v>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94097.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94097.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
   </si>
   <si>
     <t>400356</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Sanchez</t>
@@ -1085,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,7 +1102,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,4911 +1127,5296 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I42" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G68" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>101</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>101</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>104</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>101</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>104</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>101</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>101</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>104</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>101</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>104</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>101</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>104</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>101</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>101</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>104</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G86" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G87" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I88" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G89" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G91" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I91" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G92" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H92" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="J92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="J93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G94" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="J94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G95" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="J95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G96" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="J96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G97" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="H97" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G99" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="H99" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I99" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G101" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="H101" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G102" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I102" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G103" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H103" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I103" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G104" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H104" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I104" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G105" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H105" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I105" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G106" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H106" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I106" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G108" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G110" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I110" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G112" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>17</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G116" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I116" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G118" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I118" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G119" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G120" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="H120" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I120" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G122" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="H122" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I122" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G124" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="H124" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I124" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G125" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="H125" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I125" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J125" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G126" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="H126" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I126" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G127" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="H127" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I127" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>17</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>19</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G129" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="H129" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I129" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J129" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G130" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="H130" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I130" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G131" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H131" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I131" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J131" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G132" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H132" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I132" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G133" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H133" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I133" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G135" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H135" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I135" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G137" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H137" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G138" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="H138" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I138" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G139" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="H139" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I139" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J139" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G141" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="H141" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I141" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G143" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="H143" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I143" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J143" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s">
-        <v>17</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G145" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="H145" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I145" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J145" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G147" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="H147" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I147" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J147" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G149" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="H149" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I149" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J149" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G150" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="H150" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I150" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J150" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G151" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="H151" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I151" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J151" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
-        <v>17</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G153" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="H153" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I153" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J153" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s">
-        <v>17</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G155" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="H155" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I155" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J155" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s">
-        <v>17</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G157" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H157" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I157" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J157" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G158" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H158" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I158" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G159" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H159" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I159" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G160" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H160" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I160" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J160" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G161" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H161" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I161" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J161" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G162" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H162" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I162" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J162" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G163" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H163" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I163" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J163" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G164" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H164" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I164" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J164" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s">
-        <v>17</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G166" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H166" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I166" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J166" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G167" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="H167" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I167" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>231</v>
+      </c>
+      <c r="J167" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G168" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="H168" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I168" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>231</v>
+      </c>
+      <c r="J168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G169" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="H169" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I169" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s">
-        <v>17</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G171" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="H171" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I171" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>231</v>
+      </c>
+      <c r="J171" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G172" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="H172" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I172" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>239</v>
+      </c>
+      <c r="J172" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s">
-        <v>17</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>19</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G174" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="H174" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I174" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s">
-        <v>17</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>240</v>
+        <v>18</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
